--- a/src/test/data/sample/attendance.xlsx
+++ b/src/test/data/sample/attendance.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{954C2E2B-6D0C-4D67-A954-A6F305D02529}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6956346-1B7F-4236-BE5A-C8E1576B6A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29790" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業報告書" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">作業報告書!$A$1:$I$47</definedName>
     <definedName name="対象年月">データ定義!$B$3:$B$50</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -629,6 +629,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,8 +640,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1016,10 +1016,10 @@
       <c r="F8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="12">
@@ -1038,7 +1038,7 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="12">
-        <f>IF(MONTH(DATE(YEAR($H$3),MONTH($H$3),ROW(A2)))=MONTH($H$3),DATE(YEAR($H$3),MONTH($H$3),ROW(A2)),"")</f>
+        <f t="shared" ref="B10:B39" si="0">IF(MONTH(DATE(YEAR($H$3),MONTH($H$3),ROW(A2)))=MONTH($H$3),DATE(YEAR($H$3),MONTH($H$3),ROW(A2)),"")</f>
         <v>43192</v>
       </c>
       <c r="C10" s="13">
@@ -1061,7 +1061,7 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="12">
-        <f t="shared" ref="B11:B39" si="0">IF(MONTH(DATE(YEAR($H$3),MONTH($H$3),ROW(A3)))=MONTH($H$3),DATE(YEAR($H$3),MONTH($H$3),ROW(A3)),"")</f>
+        <f t="shared" si="0"/>
         <v>43193</v>
       </c>
       <c r="C11" s="13">
@@ -1130,7 +1130,7 @@
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="12">
-        <f>IF(MONTH(DATE(YEAR($H$3),MONTH($H$3),ROW(A6)))=MONTH($H$3),DATE(YEAR($H$3),MONTH($H$3),ROW(A6)),"")</f>
+        <f t="shared" si="0"/>
         <v>43196</v>
       </c>
       <c r="C14" s="13">
@@ -1652,10 +1652,10 @@
         <f>COUNTA(C9:C39)</f>
         <v>19</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="20"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="18">
         <f>SUM(F9:F39)</f>
         <v>6.5416666666666661</v>
@@ -1667,45 +1667,67 @@
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B43:H46"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
@@ -1718,31 +1740,9 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B43:H46"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B9">
+  <conditionalFormatting sqref="B9:B39">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>COUNTIF($B9,"土")</formula>
     </cfRule>
@@ -1770,7 +1770,7 @@
   <dimension ref="B2:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1906,5 +1906,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>